--- a/Program/Other/LM078_底稿_B044「借款戶向金融機構申請並經錄案」之不動產抵押貸款案件辦理情形.xlsx
+++ b/Program/Other/LM078_底稿_B044「借款戶向金融機構申請並經錄案」之不動產抵押貸款案件辦理情形.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA0B92E-B904-422D-A5C8-23F369601777}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EB280A-3EB1-48AF-889B-8B43E34AF06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOA" sheetId="87" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="48">
   <si>
     <t>項目
 代號</t>
@@ -1737,135 +1737,129 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="46" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1938,9 +1932,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1978,9 +1972,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2013,26 +2007,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2065,26 +2042,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2260,56 +2220,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811F8EF3-924C-4AA3-9375-E94F55800AAA}">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="7" customWidth="1"/>
-    <col min="3" max="14" width="14.88671875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="24.88671875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" style="7" customWidth="1"/>
-    <col min="17" max="39" width="8.44140625" style="7" hidden="1" customWidth="1"/>
-    <col min="40" max="56" width="8.88671875" style="7" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="10.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="58" max="62" width="8.88671875" style="7" hidden="1" customWidth="1"/>
-    <col min="63" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="13.1796875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" style="7" customWidth="1"/>
+    <col min="3" max="14" width="14.90625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="24.90625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="3.6328125" style="7" customWidth="1"/>
+    <col min="17" max="39" width="8.453125" style="7" hidden="1" customWidth="1"/>
+    <col min="40" max="56" width="8.90625" style="7" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="10.36328125" style="7" hidden="1" customWidth="1"/>
+    <col min="58" max="62" width="8.90625" style="7" hidden="1" customWidth="1"/>
+    <col min="63" max="16384" width="8.90625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="51" customHeight="1">
-      <c r="A1" s="15" t="str">
+      <c r="A1" s="14" t="str">
         <f>IF(COUNTBLANK(O7)=1,"","本表有誤")</f>
         <v/>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
       <c r="BA1" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(E3," ",""),"　","")</f>
-        <v>民國年月</v>
-      </c>
-      <c r="BB1" s="2" t="str">
+        <v/>
+      </c>
+      <c r="BB1" s="2" t="e">
         <f>LEFT(BA1,FIND("月",BA1,1))</f>
-        <v>民國年月</v>
-      </c>
-      <c r="BC1" s="3" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC1" s="3" t="e">
         <f>MID(BA1,FIND("民國",BA1,1)+2,FIND("年",BA1,1)-FIND("民國",BA1,1)-2)</f>
-        <v/>
-      </c>
-      <c r="BD1" s="3" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD1" s="3" t="e">
         <f>MID(BA1,FIND("年",BA1,1)+1,FIND("月",BA1,1)-FIND("年",BA1,1)-1)</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="BE1" s="3" t="e">
         <f>(BC1+1911) &amp; RIGHT("0" &amp; BD1,2)</f>
@@ -2335,337 +2295,359 @@
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:62" ht="28.5" customHeight="1">
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:62" ht="18" customHeight="1">
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="36"/>
-    </row>
-    <row r="5" spans="1:62" s="8" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="R4" s="32"/>
+    </row>
+    <row r="5" spans="1:62" s="2" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="31" t="s">
+      <c r="F5" s="33"/>
+      <c r="G5" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="34" t="s">
+      <c r="L5" s="33"/>
+      <c r="M5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="34" t="s">
+      <c r="N5" s="33"/>
+      <c r="O5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="Q5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="33" t="s">
+      <c r="R5" s="26"/>
+      <c r="S5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="34"/>
-      <c r="U5" s="33" t="s">
+      <c r="T5" s="26"/>
+      <c r="U5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34" t="s">
+      <c r="V5" s="26"/>
+      <c r="W5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34" t="s">
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="37" t="s">
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" s="38"/>
+      <c r="AB5" s="28"/>
       <c r="AC5" s="7"/>
-      <c r="AD5" s="33" t="s">
+      <c r="AD5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="33" t="s">
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="33" t="s">
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34" t="s">
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="37" t="s">
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AO5" s="38"/>
-    </row>
-    <row r="6" spans="1:62" s="13" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="34"/>
-      <c r="Q6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="U6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="W6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="X6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO6" s="18" t="s">
+      <c r="AO5" s="28"/>
+    </row>
+    <row r="6" spans="1:62" s="12" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="26"/>
+      <c r="Q6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO6" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="27"/>
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0</v>
+      </c>
+      <c r="K7" s="24">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="24">
+        <v>0</v>
+      </c>
+      <c r="N7" s="25">
+        <v>0</v>
+      </c>
       <c r="O7" s="1" t="str">
         <f>Q7&amp;R7&amp;S7&amp;T7&amp;U7&amp;V7&amp;W7&amp;X7&amp;Y7&amp;Z7&amp;AA7&amp;AB7</f>
         <v/>
       </c>
-      <c r="Q7" s="12" t="str">
+      <c r="Q7" s="11" t="str">
         <f>IF(C7="","",IF(OR(C7&lt;0,C7&gt;99999999),"[自然人第3戶以上貸款-件數]須為小於9位之正數,",IF(C7&lt;&gt;INT(C7),"[自然人第3戶以上貸款-件數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="R7" s="12" t="str">
+      <c r="R7" s="11" t="str">
         <f>IF(D7="","",IF(OR(D7&lt;0,D7&gt;99999999.99),"[自然人第3戶以上貸款-金額]須為小於9位之正數,",IF(D7&lt;&gt;ROUND(D7,2),"[自然人第3戶以上貸款-金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="S7" s="12" t="str">
+      <c r="S7" s="11" t="str">
         <f>IF(E7="","",IF(OR(E7&lt;0,E7&gt;99999999),"[公司法人第1戶貸款-件數]須為小於9位之正數,",IF(E7&lt;&gt;INT(E7),"[公司法人第1戶貸款-件數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="T7" s="12" t="str">
+      <c r="T7" s="11" t="str">
         <f>IF(F7="","",IF(OR(F7&lt;0,F7&gt;99999999.99),"[公司法人第1戶貸款-金額]須為小於9位之正數,",IF(F7&lt;&gt;ROUND(F7,2),"[公司法人第1戶貸款-金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="U7" s="12" t="str">
+      <c r="U7" s="11" t="str">
         <f>IF(G7="","",IF(OR(G7&lt;0,G7&gt;99999999),"[公司法人第2戶以上貸款-件數]須為小於9位之正數,",IF(G7&lt;&gt;INT(G7),"[公司法人第2戶以上貸款-件數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="V7" s="12" t="str">
+      <c r="V7" s="11" t="str">
         <f>IF(H7="","",IF(OR(H7&lt;0,H7&gt;99999999.99),"[公司法人第2戶以上貸款-金額]須為小於9位之正數,",IF(H7&lt;&gt;ROUND(H7,2),"[公司法人第2戶以上貸款-金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="W7" s="12" t="str">
+      <c r="W7" s="11" t="str">
         <f>IF(I7="","",IF(OR(I7&lt;0,I7&gt;99999999),"[購地貸款-件數]須為小於9位之正數,",IF(I7&lt;&gt;INT(I7),"[購地貸款-件數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="X7" s="12" t="str">
+      <c r="X7" s="11" t="str">
         <f>IF(J7="","",IF(OR(J7&lt;0,J7&gt;99999999.99),"[購地貸款-金額]須為小於9位之正數,",IF(J7&lt;&gt;ROUND(J7,2),"[購地貸款-金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="Y7" s="12" t="str">
+      <c r="Y7" s="11" t="str">
         <f>IF(K7="","",IF(OR(K7&lt;0,K7&gt;99999999),"[餘屋貸款-件數]須為小於9位之正數,",IF(K7&lt;&gt;INT(K7),"[餘屋貸款-件數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="Z7" s="12" t="str">
+      <c r="Z7" s="11" t="str">
         <f>IF(L7="","",IF(OR(L7&lt;0,L7&gt;99999999.99),"[餘屋貸款-金額]須為小於9位之正數,",IF(L7&lt;&gt;ROUND(L7,2),"[餘屋貸款-金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="AA7" s="12" t="str">
+      <c r="AA7" s="11" t="str">
         <f>IF(M7="","",IF(OR(M7&lt;0,M7&gt;99999999),"[工業區閒置土地抵押貸款-件數]須為小於9位之正數,",IF(M7&lt;&gt;INT(M7),"[工業區閒置土地抵押貸款-件數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="AB7" s="12" t="str">
+      <c r="AB7" s="11" t="str">
         <f>IF(N7="","",IF(OR(N7&lt;0,N7&gt;99999999.99),"[工業區閒置土地抵押貸款-金額]須為小於9位之正數,",IF(N7&lt;&gt;ROUND(N7,2),"[工業區閒置土地抵押貸款-金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
     </row>
     <row r="8" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
     </row>
     <row r="9" spans="1:62" ht="18" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2673,75 +2655,71 @@
       </c>
     </row>
     <row r="10" spans="1:62" ht="18" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:62" ht="18" customHeight="1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:62" ht="18" customHeight="1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:62" ht="18" customHeight="1">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:62" ht="18" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:62" ht="18" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:62" ht="16.2">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:62" ht="17">
+      <c r="A16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16.2">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:1" ht="17">
+      <c r="A17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="E2:G2"/>
@@ -2753,11 +2731,15 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2775,38 +2757,38 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="7" customWidth="1"/>
-    <col min="3" max="14" width="14.88671875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="24.88671875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" style="7" customWidth="1"/>
-    <col min="17" max="39" width="8.44140625" style="7" hidden="1" customWidth="1"/>
-    <col min="40" max="56" width="8.88671875" style="7" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="10.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="58" max="62" width="8.88671875" style="7" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="8.88671875" style="7" customWidth="1"/>
-    <col min="64" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="13.1796875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" style="7" customWidth="1"/>
+    <col min="3" max="14" width="14.90625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="24.90625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="3.6328125" style="7" customWidth="1"/>
+    <col min="17" max="39" width="8.453125" style="7" hidden="1" customWidth="1"/>
+    <col min="40" max="56" width="8.90625" style="7" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="10.36328125" style="7" hidden="1" customWidth="1"/>
+    <col min="58" max="62" width="8.90625" style="7" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="8.90625" style="7" customWidth="1"/>
+    <col min="64" max="16384" width="8.90625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="51" customHeight="1">
-      <c r="A1" s="15" t="str">
+      <c r="A1" s="14" t="str">
         <f>IF(COUNTBLANK(O7)=1,"","本表有誤")</f>
         <v/>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
       <c r="BA1" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(E3," ",""),"　","")</f>
         <v>民國年月</v>
@@ -2847,337 +2829,337 @@
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:62" ht="28.5" customHeight="1">
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:62" ht="18" customHeight="1">
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="36"/>
-    </row>
-    <row r="5" spans="1:62" s="8" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="R4" s="32"/>
+    </row>
+    <row r="5" spans="1:62" s="2" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="31" t="s">
+      <c r="F5" s="33"/>
+      <c r="G5" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="34" t="s">
+      <c r="L5" s="33"/>
+      <c r="M5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="34" t="s">
+      <c r="N5" s="33"/>
+      <c r="O5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="Q5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="33" t="s">
+      <c r="R5" s="26"/>
+      <c r="S5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="34"/>
-      <c r="U5" s="33" t="s">
+      <c r="T5" s="26"/>
+      <c r="U5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34" t="s">
+      <c r="V5" s="26"/>
+      <c r="W5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34" t="s">
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="37" t="s">
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" s="38"/>
+      <c r="AB5" s="28"/>
       <c r="AC5" s="7"/>
-      <c r="AD5" s="33" t="s">
+      <c r="AD5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="33" t="s">
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="33" t="s">
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34" t="s">
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="37" t="s">
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AO5" s="38"/>
-    </row>
-    <row r="6" spans="1:62" s="13" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="34"/>
-      <c r="Q6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="X6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO6" s="18" t="s">
+      <c r="AO5" s="28"/>
+    </row>
+    <row r="6" spans="1:62" s="12" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="26"/>
+      <c r="Q6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO6" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="1" t="str">
         <f>Q7&amp;R7&amp;S7&amp;T7&amp;U7&amp;V7&amp;W7&amp;X7&amp;Y7&amp;Z7&amp;AA7&amp;AB7</f>
         <v/>
       </c>
-      <c r="Q7" s="12" t="str">
+      <c r="Q7" s="11" t="str">
         <f>IF(C7="","",IF(OR(C7&lt;0,C7&gt;99999999),"[自然人第3戶以上貸款-件數]須為小於9位之正數,",IF(C7&lt;&gt;INT(C7),"[自然人第3戶以上貸款-件數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="R7" s="12" t="str">
+      <c r="R7" s="11" t="str">
         <f>IF(D7="","",IF(OR(D7&lt;0,D7&gt;99999999.99),"[自然人第3戶以上貸款-金額]須為小於9位之正數,",IF(D7&lt;&gt;ROUND(D7,2),"[自然人第3戶以上貸款-金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="S7" s="12" t="str">
+      <c r="S7" s="11" t="str">
         <f>IF(E7="","",IF(OR(E7&lt;0,E7&gt;99999999),"[公司法人第1戶貸款-件數]須為小於9位之正數,",IF(E7&lt;&gt;INT(E7),"[公司法人第1戶貸款-件數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="T7" s="12" t="str">
+      <c r="T7" s="11" t="str">
         <f>IF(F7="","",IF(OR(F7&lt;0,F7&gt;99999999.99),"[公司法人第1戶貸款-金額]須為小於9位之正數,",IF(F7&lt;&gt;ROUND(F7,2),"[公司法人第1戶貸款-金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="U7" s="12" t="str">
+      <c r="U7" s="11" t="str">
         <f>IF(G7="","",IF(OR(G7&lt;0,G7&gt;99999999),"[公司法人第2戶以上貸款-件數]須為小於9位之正數,",IF(G7&lt;&gt;INT(G7),"[公司法人第2戶以上貸款-件數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="V7" s="12" t="str">
+      <c r="V7" s="11" t="str">
         <f>IF(H7="","",IF(OR(H7&lt;0,H7&gt;99999999.99),"[公司法人第2戶以上貸款-金額]須為小於9位之正數,",IF(H7&lt;&gt;ROUND(H7,2),"[公司法人第2戶以上貸款-金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="W7" s="12" t="str">
+      <c r="W7" s="11" t="str">
         <f>IF(I7="","",IF(OR(I7&lt;0,I7&gt;99999999),"[購地貸款-件數]須為小於9位之正數,",IF(I7&lt;&gt;INT(I7),"[購地貸款-件數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="X7" s="12" t="str">
+      <c r="X7" s="11" t="str">
         <f>IF(J7="","",IF(OR(J7&lt;0,J7&gt;99999999.99),"[購地貸款-金額]須為小於9位之正數,",IF(J7&lt;&gt;ROUND(J7,2),"[購地貸款-金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="Y7" s="12" t="str">
+      <c r="Y7" s="11" t="str">
         <f>IF(K7="","",IF(OR(K7&lt;0,K7&gt;99999999),"[餘屋貸款-件數]須為小於9位之正數,",IF(K7&lt;&gt;INT(K7),"[餘屋貸款-件數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="Z7" s="12" t="str">
+      <c r="Z7" s="11" t="str">
         <f>IF(L7="","",IF(OR(L7&lt;0,L7&gt;99999999.99),"[餘屋貸款-金額]須為小於9位之正數,",IF(L7&lt;&gt;ROUND(L7,2),"[餘屋貸款-金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="AA7" s="12" t="str">
+      <c r="AA7" s="11" t="str">
         <f>IF(M7="","",IF(OR(M7&lt;0,M7&gt;99999999),"[工業區閒置土地抵押貸款-件數]須為小於9位之正數,",IF(M7&lt;&gt;INT(M7),"[工業區閒置土地抵押貸款-件數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="AB7" s="12" t="str">
+      <c r="AB7" s="11" t="str">
         <f>IF(N7="","",IF(OR(N7&lt;0,N7&gt;99999999.99),"[工業區閒置土地抵押貸款-金額]須為小於9位之正數,",IF(N7&lt;&gt;ROUND(N7,2),"[工業區閒置土地抵押貸款-金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
     </row>
     <row r="8" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
     </row>
     <row r="9" spans="1:62" ht="18" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -3185,67 +3167,76 @@
       </c>
     </row>
     <row r="10" spans="1:62" ht="18" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:62" ht="18" customHeight="1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:62" ht="18" customHeight="1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:62" ht="18" customHeight="1">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:62" ht="18" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:62" ht="18" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:62" ht="16.2">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:62" ht="17">
+      <c r="A16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16.2">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:1" ht="17">
+      <c r="A17" s="15"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Wh1Oj9s41BFJZFSbrKaD7KOu+PP/9aPiKr7qXmYSo0k3y2fMWgrbTzS4LSLLMMAXtF9K6yjkxLacPGK9xtEoEA==" saltValue="W+9Ott5HBDTa9dlumI0EAg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="25">
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="AN5:AO5"/>
     <mergeCell ref="AL5:AM5"/>
     <mergeCell ref="E3:G3"/>
@@ -3262,15 +3253,6 @@
     <mergeCell ref="AJ5:AK5"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
